--- a/normativa/Anexos/L01T03C08/L01T03C08A07.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A07.xlsx
@@ -193,29 +193,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Medidas de seguridad instaladas de acuerdo al Reglamento para la Gestión de Seguridad Física:</t>
     </r>
     <r>
@@ -455,6 +432,39 @@
   </si>
   <si>
     <t>Operaciones y Servicios Financieros que prestará:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -794,6 +804,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -802,6 +849,45 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -824,12 +910,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -848,76 +928,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,7 +946,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1224,11 +1234,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="70" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:O41"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="23" width="3.7109375" style="1"/>
     <col min="24" max="24" width="4.85546875" style="1" customWidth="1"/>
@@ -1237,13 +1247,13 @@
   <sheetData>
     <row r="1" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W1" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L3" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,88 +1279,88 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
+      <c r="A6" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
     </row>
     <row r="7" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -1393,46 +1403,46 @@
       <c r="AL7" s="8"/>
     </row>
     <row r="8" spans="1:38" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="51"/>
+      <c r="A8" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="77"/>
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -1475,88 +1485,88 @@
       <c r="AL9" s="9"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="60"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="84"/>
     </row>
     <row r="11" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="60"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="84"/>
     </row>
     <row r="12" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
@@ -1630,88 +1640,88 @@
       <c r="AL13" s="20"/>
     </row>
     <row r="14" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="63"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="87"/>
     </row>
     <row r="15" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="80"/>
-      <c r="AJ15" s="80"/>
-      <c r="AK15" s="80"/>
-      <c r="AL15" s="81"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="58"/>
     </row>
     <row r="16" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -1783,262 +1793,262 @@
       <c r="AL17" s="25"/>
     </row>
     <row r="18" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="48"/>
+      <c r="A18" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="61"/>
     </row>
     <row r="19" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="48"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="61"/>
     </row>
     <row r="20" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="48"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="61"/>
     </row>
     <row r="21" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="47"/>
-      <c r="AL21" s="48"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="61"/>
       <c r="AM21" s="6"/>
     </row>
     <row r="22" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="48"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="61"/>
       <c r="AM22" s="6"/>
     </row>
     <row r="23" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="48"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="61"/>
     </row>
     <row r="24" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -2148,214 +2158,214 @@
       <c r="AL26" s="25"/>
     </row>
     <row r="27" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="66"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="54"/>
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="54"/>
+      <c r="AK27" s="54"/>
+      <c r="AL27" s="55"/>
     </row>
     <row r="28" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="66"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54"/>
+      <c r="AG28" s="54"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="54"/>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="54"/>
+      <c r="AL28" s="55"/>
     </row>
     <row r="29" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
-      <c r="AG29" s="65"/>
-      <c r="AH29" s="65"/>
-      <c r="AI29" s="65"/>
-      <c r="AJ29" s="65"/>
-      <c r="AK29" s="65"/>
-      <c r="AL29" s="66"/>
+      <c r="A29" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="55"/>
     </row>
     <row r="30" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="65"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="65"/>
-      <c r="AG30" s="65"/>
-      <c r="AH30" s="65"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="66"/>
+      <c r="A30" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="55"/>
     </row>
     <row r="31" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="66"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="54"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="55"/>
     </row>
     <row r="32" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -2386,7 +2396,7 @@
     </row>
     <row r="33" spans="1:101" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -2490,7 +2500,7 @@
       <c r="CW33" s="6"/>
     </row>
     <row r="34" spans="1:101" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -2593,21 +2603,21 @@
       <c r="CW34" s="6"/>
     </row>
     <row r="35" spans="1:101" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="48"/>
+      <c r="A35" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="61"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
@@ -2698,34 +2708,34 @@
       <c r="CW35" s="6"/>
     </row>
     <row r="36" spans="1:101" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="55"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="80"/>
+      <c r="Z36" s="81"/>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
@@ -2921,31 +2931,31 @@
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
-      <c r="P38" s="56" t="s">
+      <c r="P38" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56" t="s">
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56" t="s">
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56" t="s">
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56" t="s">
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
       <c r="AE38" s="6"/>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
@@ -3019,38 +3029,38 @@
       <c r="CW38" s="6"/>
     </row>
     <row r="39" spans="1:101" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
+      <c r="A39" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="48"/>
+      <c r="AB39" s="48"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="48"/>
       <c r="AE39" s="6"/>
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
@@ -3124,38 +3134,38 @@
       <c r="CW39" s="6"/>
     </row>
     <row r="40" spans="1:101" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="56"/>
-      <c r="AC40" s="56"/>
-      <c r="AD40" s="56"/>
+      <c r="A40" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="48"/>
       <c r="AE40" s="6"/>
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
@@ -3229,23 +3239,23 @@
       <c r="CW40" s="6"/>
     </row>
     <row r="41" spans="1:101" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
+      <c r="A41" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
       <c r="P41" s="31"/>
       <c r="Q41" s="31"/>
       <c r="R41" s="31"/>
@@ -3334,23 +3344,23 @@
       <c r="CW41" s="6"/>
     </row>
     <row r="42" spans="1:101" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
+      <c r="A42" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
       <c r="P42" s="31"/>
       <c r="Q42" s="31"/>
       <c r="R42" s="31"/>
@@ -3543,7 +3553,7 @@
     </row>
     <row r="44" spans="1:101" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -3648,7 +3658,7 @@
     </row>
     <row r="45" spans="1:101" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="70"/>
       <c r="C45" s="70"/>
@@ -3864,38 +3874,38 @@
       <c r="CT46" s="6"/>
     </row>
     <row r="47" spans="1:101" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="56"/>
-      <c r="AC47" s="56"/>
-      <c r="AD47" s="56"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="48"/>
+      <c r="Z47" s="48"/>
+      <c r="AA47" s="48"/>
+      <c r="AB47" s="48"/>
+      <c r="AC47" s="48"/>
+      <c r="AD47" s="48"/>
       <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
@@ -3966,38 +3976,38 @@
       <c r="CT47" s="6"/>
     </row>
     <row r="48" spans="1:101" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="48"/>
+      <c r="AB48" s="48"/>
+      <c r="AC48" s="48"/>
+      <c r="AD48" s="48"/>
       <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
       <c r="AG48" s="6"/>
@@ -4068,38 +4078,38 @@
       <c r="CT48" s="6"/>
     </row>
     <row r="49" spans="1:101" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="56"/>
-      <c r="AD49" s="56"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="48"/>
+      <c r="Z49" s="48"/>
+      <c r="AA49" s="48"/>
+      <c r="AB49" s="48"/>
+      <c r="AC49" s="48"/>
+      <c r="AD49" s="48"/>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
       <c r="AG49" s="6"/>
@@ -4170,43 +4180,43 @@
       <c r="CT49" s="6"/>
     </row>
     <row r="50" spans="1:101" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="77" t="s">
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q50" s="77"/>
-      <c r="R50" s="77"/>
-      <c r="S50" s="77" t="s">
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="T50" s="77"/>
-      <c r="U50" s="77"/>
-      <c r="V50" s="77" t="s">
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="W50" s="77"/>
-      <c r="X50" s="77"/>
-      <c r="Y50" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z50" s="77"/>
-      <c r="AA50" s="77"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
@@ -4280,35 +4290,35 @@
       <c r="CT50" s="6"/>
     </row>
     <row r="51" spans="1:101" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="48"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
@@ -4385,35 +4395,35 @@
       <c r="CW51" s="6"/>
     </row>
     <row r="52" spans="1:101" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="85" t="s">
+      <c r="A52" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="48"/>
+      <c r="W52" s="48"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="48"/>
+      <c r="AA52" s="48"/>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
@@ -4490,35 +4500,35 @@
       <c r="CW52" s="6"/>
     </row>
     <row r="53" spans="1:101" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="48"/>
+      <c r="W53" s="48"/>
+      <c r="X53" s="48"/>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="48"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
@@ -4595,33 +4605,33 @@
       <c r="CW53" s="6"/>
     </row>
     <row r="54" spans="1:101" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="82" t="s">
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="T54" s="77"/>
-      <c r="U54" s="77"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="65"/>
+      <c r="S54" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
       <c r="V54" s="32"/>
       <c r="W54" s="33"/>
       <c r="X54" s="33"/>
@@ -4701,29 +4711,29 @@
       <c r="CT54" s="6"/>
     </row>
     <row r="55" spans="1:101" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="48"/>
       <c r="V55" s="31"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
@@ -4803,29 +4813,29 @@
       <c r="CT55" s="6"/>
     </row>
     <row r="56" spans="1:101" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
+      <c r="U56" s="48"/>
       <c r="V56" s="31"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
@@ -4905,29 +4915,29 @@
       <c r="CT56" s="6"/>
     </row>
     <row r="57" spans="1:101" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="56"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="48"/>
       <c r="V57" s="31"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
@@ -5007,23 +5017,23 @@
       <c r="CT57" s="6"/>
     </row>
     <row r="58" spans="1:101" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
+      <c r="A58" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
       <c r="P58" s="31"/>
       <c r="Q58" s="31"/>
       <c r="R58" s="31"/>
@@ -5112,23 +5122,23 @@
       <c r="CW58" s="6"/>
     </row>
     <row r="59" spans="1:101" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="69"/>
+      <c r="A59" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
       <c r="P59" s="31"/>
       <c r="Q59" s="31"/>
       <c r="R59" s="31"/>
@@ -5217,22 +5227,22 @@
       <c r="CW59" s="6"/>
     </row>
     <row r="60" spans="1:101" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
+      <c r="A60" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
       <c r="M60" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N60" s="37"/>
       <c r="O60" s="37"/>
@@ -5243,7 +5253,7 @@
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
       <c r="V60" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
@@ -5441,7 +5451,7 @@
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
@@ -5452,7 +5462,7 @@
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
       <c r="V62" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
@@ -5575,46 +5585,46 @@
       <c r="AL63" s="9"/>
     </row>
     <row r="64" spans="1:101" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="67"/>
-      <c r="X64" s="67"/>
-      <c r="Y64" s="67"/>
-      <c r="Z64" s="67"/>
-      <c r="AA64" s="67"/>
-      <c r="AB64" s="67"/>
-      <c r="AC64" s="67"/>
-      <c r="AD64" s="67"/>
-      <c r="AE64" s="67"/>
-      <c r="AF64" s="67"/>
-      <c r="AG64" s="67"/>
-      <c r="AH64" s="67"/>
-      <c r="AI64" s="67"/>
-      <c r="AJ64" s="67"/>
-      <c r="AK64" s="67"/>
-      <c r="AL64" s="67"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="68"/>
+      <c r="W64" s="68"/>
+      <c r="X64" s="68"/>
+      <c r="Y64" s="68"/>
+      <c r="Z64" s="68"/>
+      <c r="AA64" s="68"/>
+      <c r="AB64" s="68"/>
+      <c r="AC64" s="68"/>
+      <c r="AD64" s="68"/>
+      <c r="AE64" s="68"/>
+      <c r="AF64" s="68"/>
+      <c r="AG64" s="68"/>
+      <c r="AH64" s="68"/>
+      <c r="AI64" s="68"/>
+      <c r="AJ64" s="68"/>
+      <c r="AK64" s="68"/>
+      <c r="AL64" s="68"/>
     </row>
     <row r="65" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -5780,13 +5790,79 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="A5:AL5"/>
+    <mergeCell ref="A36:Z36"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A10:AL10"/>
+    <mergeCell ref="A11:AL11"/>
+    <mergeCell ref="A14:AL14"/>
+    <mergeCell ref="A30:AL30"/>
+    <mergeCell ref="A31:AL31"/>
+    <mergeCell ref="A22:AL22"/>
+    <mergeCell ref="A23:AL23"/>
+    <mergeCell ref="A27:AL27"/>
+    <mergeCell ref="A28:AL28"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A64:AL64"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="A45:Z45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="A49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="A48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="A53:O53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="A58:O58"/>
+    <mergeCell ref="A59:O59"/>
+    <mergeCell ref="A56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
     <mergeCell ref="V53:X53"/>
     <mergeCell ref="A60:L60"/>
     <mergeCell ref="A29:AL29"/>
@@ -5803,83 +5879,17 @@
     <mergeCell ref="P52:R52"/>
     <mergeCell ref="S52:U52"/>
     <mergeCell ref="V52:X52"/>
-    <mergeCell ref="A58:O58"/>
-    <mergeCell ref="A59:O59"/>
-    <mergeCell ref="A56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="A55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="A53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
     <mergeCell ref="A50:O50"/>
     <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="A49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="A48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
     <mergeCell ref="V50:X50"/>
     <mergeCell ref="P50:R50"/>
-    <mergeCell ref="A64:AL64"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="A45:Z45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="A47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="AB47:AD47"/>
-    <mergeCell ref="A23:AL23"/>
-    <mergeCell ref="A27:AL27"/>
-    <mergeCell ref="A28:AL28"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A5:AL5"/>
-    <mergeCell ref="A36:Z36"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="A10:AL10"/>
-    <mergeCell ref="A11:AL11"/>
-    <mergeCell ref="A14:AL14"/>
-    <mergeCell ref="A30:AL30"/>
-    <mergeCell ref="A31:AL31"/>
-    <mergeCell ref="A22:AL22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5888,7 +5898,7 @@
     <oddHeader xml:space="preserve">&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 </oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/472/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/828/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo VIII
 Anexo 7
@@ -5903,7 +5913,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
